--- a/ecosysem/db/Excels/DeltaH.xlsx
+++ b/ecosysem/db/Excels/DeltaH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090E5275-C5CF-4A60-ADCB-9E6EC00FFBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0CE8BC-5C1E-4B31-A278-514ADCF820E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
   </bookViews>
@@ -38,10 +38,19 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={38DFE3F0-8225-4DFF-A0EC-9D7537413BEA}</author>
     <author>tc={F041814C-ECC2-4AB2-BE74-11F857A9EFE3}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F041814C-ECC2-4AB2-BE74-11F857A9EFE3}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{38DFE3F0-8225-4DFF-A0EC-9D7537413BEA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    'aq' as 'l'</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{F041814C-ECC2-4AB2-BE74-11F857A9EFE3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
   <si>
     <t>IUPAC</t>
   </si>
@@ -107,15 +116,6 @@
     <t>H2</t>
   </si>
   <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>aq</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
     <t>Nitrous oxide</t>
   </si>
   <si>
@@ -255,6 +255,27 @@
   </si>
   <si>
     <t>Speight2005</t>
+  </si>
+  <si>
+    <t>Hydroxide</t>
+  </si>
+  <si>
+    <t>OH-</t>
+  </si>
+  <si>
+    <t>Proton</t>
+  </si>
+  <si>
+    <t>H+</t>
+  </si>
+  <si>
+    <t>Kleerebezem2010</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -298,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -306,9 +327,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,6 +668,9 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C1" dT="2024-08-15T17:33:05.84" personId="{6650A879-AA15-437C-813B-5AC12B7C2882}" id="{38DFE3F0-8225-4DFF-A0EC-9D7537413BEA}">
+    <text>'aq' as 'l'</text>
+  </threadedComment>
   <threadedComment ref="D1" dT="2024-08-08T12:02:07.09" personId="{6650A879-AA15-437C-813B-5AC12B7C2882}" id="{F041814C-ECC2-4AB2-BE74-11F857A9EFE3}">
     <text>[kJ/mol]</text>
   </threadedComment>
@@ -658,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC731D4-E3C1-4B64-BF1D-C3C9432561A9}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,7 +693,7 @@
     <col min="5" max="5" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -697,16 +718,16 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D2" s="3">
         <v>-110.5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -714,16 +735,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D3" s="3">
         <v>-110.5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -731,16 +752,16 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3">
         <v>-393.5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -748,16 +769,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D5" s="3">
         <v>-413.26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -765,16 +786,16 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -782,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D7" s="3">
         <v>-12.06</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -799,16 +820,16 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D8" s="3">
         <v>-285.89999999999998</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -816,16 +837,16 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3">
         <v>-74.8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -833,18 +854,16 @@
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3">
         <v>-87.92</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -852,18 +871,16 @@
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -871,461 +888,489 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3">
         <v>82</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="3">
+        <v>70</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3">
-        <v>70</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3">
         <v>-45.94</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D16" s="3">
         <v>-80.290000000000006</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D17" s="3">
         <v>-133.26</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3">
         <v>91.29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D19" s="3">
         <v>91.29</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D20" s="3">
         <v>-20.6</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D21" s="3">
         <v>-38.6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D22" s="3">
         <v>-16.3</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D23" s="3">
         <v>33.1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D24" s="3">
         <v>-608.80999999999995</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D25" s="3">
         <v>-626.22</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D26" s="3">
         <v>-635.5</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D27" s="3">
         <v>-814</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D28" s="3">
         <v>-886.9</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D29" s="3">
         <v>-909.34</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D30" s="3">
         <v>-484.13</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D31" s="3">
         <v>-486</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D32" s="3">
         <v>-699.65</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D33" s="3">
         <v>-689.93</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D34" s="3">
         <v>-673.23</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D35" s="3">
         <v>-79.5</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D36" s="3">
         <v>-104.6</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D37" s="3">
         <v>-174.1</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D38" s="3">
         <v>-206.85</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-230.01400000000001</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>66</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/ecosysem/db/Excels/DeltaH.xlsx
+++ b/ecosysem/db/Excels/DeltaH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0CE8BC-5C1E-4B31-A278-514ADCF820E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD735508-C188-4825-9764-44DE05DCFB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
   </bookViews>
@@ -40,6 +40,7 @@
   <authors>
     <author>tc={38DFE3F0-8225-4DFF-A0EC-9D7537413BEA}</author>
     <author>tc={F041814C-ECC2-4AB2-BE74-11F857A9EFE3}</author>
+    <author>tc={FDC966B5-7AD9-4D45-817F-E484D096CBB7}</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{38DFE3F0-8225-4DFF-A0EC-9D7537413BEA}">
@@ -58,12 +59,20 @@
     [kJ/mol]</t>
       </text>
     </comment>
+    <comment ref="A42" authorId="2" shapeId="0" xr:uid="{FDC966B5-7AD9-4D45-817F-E484D096CBB7}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    From: Sulfur Dioxide Enthalpy of Formation (anl.gov) </t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="74">
   <si>
     <t>IUPAC</t>
   </si>
@@ -276,6 +285,15 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>Sulfur dioxide</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ATcT (v1.122)</t>
   </si>
 </sst>
 </file>
@@ -674,15 +692,24 @@
   <threadedComment ref="D1" dT="2024-08-08T12:02:07.09" personId="{6650A879-AA15-437C-813B-5AC12B7C2882}" id="{F041814C-ECC2-4AB2-BE74-11F857A9EFE3}">
     <text>[kJ/mol]</text>
   </threadedComment>
+  <threadedComment ref="A42" dT="2024-08-17T21:05:32.21" personId="{6650A879-AA15-437C-813B-5AC12B7C2882}" id="{FDC966B5-7AD9-4D45-817F-E484D096CBB7}">
+    <text xml:space="preserve">From: Sulfur Dioxide Enthalpy of Formation (anl.gov) </text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>1445606175</xltc2:checksum>
+        <xltc2:hyperlink startIndex="6" length="46" url="https://atct.anl.gov/Thermochemical%20Data/version%201.122x/species/?species_number=1669"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC731D4-E3C1-4B64-BF1D-C3C9432561A9}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1373,6 +1400,40 @@
         <v>68</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-296.81</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="3">
+        <v>-322.82</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
